--- a/example2/settings.xlsx
+++ b/example2/settings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Università\Laboratorio\github\CRISPR_guides\example2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712C41B-203F-4633-AB1E-852B7F491E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="516" windowWidth="18876" windowHeight="7356"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -56,12 +62,6 @@
     <t>acessibility</t>
   </si>
   <si>
-    <t>alignment</t>
-  </si>
-  <si>
-    <t>TRUE if bowtie index needs to be performed, else FALSE</t>
-  </si>
-  <si>
     <t>fasta</t>
   </si>
   <si>
@@ -106,11 +106,17 @@
   <si>
     <t>/home/shared_folder/hg19.fa</t>
   </si>
+  <si>
+    <t>indexing</t>
+  </si>
+  <si>
+    <t>TRUE if bowtie index needs to be generated, else FALSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,16 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -181,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -404,8 +411,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
+      <c r="C1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -416,13 +423,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -456,75 +463,75 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="4"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1520,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2537,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
